--- a/outputs/COMBINED Timesheet 9-7-25 thru 9-13-25.xlsx
+++ b/outputs/COMBINED Timesheet 9-7-25 thru 9-13-25.xlsx
@@ -452,6 +452,20 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="22" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="15" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
+    <col width="15" customWidth="1" min="5" max="5"/>
+    <col width="143" customWidth="1" min="6" max="6"/>
+    <col width="10" customWidth="1" min="7" max="7"/>
+    <col width="113" customWidth="1" min="8" max="8"/>
+    <col width="10" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="18" customWidth="1" min="11" max="11"/>
+    <col width="16" customWidth="1" min="12" max="12"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -2641,6 +2655,20 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="15" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="15" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
+    <col width="15" customWidth="1" min="5" max="5"/>
+    <col width="63" customWidth="1" min="6" max="6"/>
+    <col width="10" customWidth="1" min="7" max="7"/>
+    <col width="104" customWidth="1" min="8" max="8"/>
+    <col width="10" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="11" customWidth="1" min="12" max="12"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -2936,6 +2964,20 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="10" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="15" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
+    <col width="15" customWidth="1" min="5" max="5"/>
+    <col width="11" customWidth="1" min="6" max="6"/>
+    <col width="10" customWidth="1" min="7" max="7"/>
+    <col width="23" customWidth="1" min="8" max="8"/>
+    <col width="10" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="11" customWidth="1" min="12" max="12"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -3047,6 +3089,20 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="20" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="15" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
+    <col width="15" customWidth="1" min="5" max="5"/>
+    <col width="11" customWidth="1" min="6" max="6"/>
+    <col width="10" customWidth="1" min="7" max="7"/>
+    <col width="103" customWidth="1" min="8" max="8"/>
+    <col width="10" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="11" customWidth="1" min="12" max="12"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -3156,6 +3212,20 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="15" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
+    <col width="15" customWidth="1" min="5" max="5"/>
+    <col width="100" customWidth="1" min="6" max="6"/>
+    <col width="10" customWidth="1" min="7" max="7"/>
+    <col width="104" customWidth="1" min="8" max="8"/>
+    <col width="10" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="11" customWidth="1" min="12" max="12"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -3319,6 +3389,20 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="15" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
+    <col width="15" customWidth="1" min="5" max="5"/>
+    <col width="72" customWidth="1" min="6" max="6"/>
+    <col width="10" customWidth="1" min="7" max="7"/>
+    <col width="104" customWidth="1" min="8" max="8"/>
+    <col width="10" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="18" customWidth="1" min="11" max="11"/>
+    <col width="11" customWidth="1" min="12" max="12"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -3524,6 +3608,20 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="7" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="15" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
+    <col width="15" customWidth="1" min="5" max="5"/>
+    <col width="107" customWidth="1" min="6" max="6"/>
+    <col width="10" customWidth="1" min="7" max="7"/>
+    <col width="56" customWidth="1" min="8" max="8"/>
+    <col width="10" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="11" customWidth="1" min="12" max="12"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -3907,6 +4005,20 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="13" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="15" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
+    <col width="15" customWidth="1" min="5" max="5"/>
+    <col width="75" customWidth="1" min="6" max="6"/>
+    <col width="10" customWidth="1" min="7" max="7"/>
+    <col width="101" customWidth="1" min="8" max="8"/>
+    <col width="10" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="11" customWidth="1" min="12" max="12"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -4246,6 +4358,20 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="9" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="15" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
+    <col width="15" customWidth="1" min="5" max="5"/>
+    <col width="143" customWidth="1" min="6" max="6"/>
+    <col width="10" customWidth="1" min="7" max="7"/>
+    <col width="107" customWidth="1" min="8" max="8"/>
+    <col width="10" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="11" customWidth="1" min="12" max="12"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -4625,6 +4751,20 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="15" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
+    <col width="15" customWidth="1" min="5" max="5"/>
+    <col width="53" customWidth="1" min="6" max="6"/>
+    <col width="10" customWidth="1" min="7" max="7"/>
+    <col width="102" customWidth="1" min="8" max="8"/>
+    <col width="10" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="16" customWidth="1" min="11" max="11"/>
+    <col width="13" customWidth="1" min="12" max="12"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -4840,6 +4980,20 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="7" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="15" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
+    <col width="15" customWidth="1" min="5" max="5"/>
+    <col width="64" customWidth="1" min="6" max="6"/>
+    <col width="10" customWidth="1" min="7" max="7"/>
+    <col width="113" customWidth="1" min="8" max="8"/>
+    <col width="10" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="15" customWidth="1" min="11" max="11"/>
+    <col width="11" customWidth="1" min="12" max="12"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -5051,6 +5205,20 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="22" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="15" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
+    <col width="15" customWidth="1" min="5" max="5"/>
+    <col width="73" customWidth="1" min="6" max="6"/>
+    <col width="10" customWidth="1" min="7" max="7"/>
+    <col width="13" customWidth="1" min="8" max="8"/>
+    <col width="10" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="11" customWidth="1" min="12" max="12"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -5162,6 +5330,20 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="15" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
+    <col width="15" customWidth="1" min="5" max="5"/>
+    <col width="21" customWidth="1" min="6" max="6"/>
+    <col width="10" customWidth="1" min="7" max="7"/>
+    <col width="76" customWidth="1" min="8" max="8"/>
+    <col width="10" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="11" customWidth="1" min="12" max="12"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -5281,6 +5463,20 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="8" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="15" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
+    <col width="15" customWidth="1" min="5" max="5"/>
+    <col width="23" customWidth="1" min="6" max="6"/>
+    <col width="10" customWidth="1" min="7" max="7"/>
+    <col width="68" customWidth="1" min="8" max="8"/>
+    <col width="10" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="11" customWidth="1" min="12" max="12"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -5420,6 +5616,20 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="15" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
+    <col width="15" customWidth="1" min="5" max="5"/>
+    <col width="11" customWidth="1" min="6" max="6"/>
+    <col width="10" customWidth="1" min="7" max="7"/>
+    <col width="13" customWidth="1" min="8" max="8"/>
+    <col width="10" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="11" customWidth="1" min="12" max="12"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -5531,6 +5741,20 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="15" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
+    <col width="15" customWidth="1" min="5" max="5"/>
+    <col width="53" customWidth="1" min="6" max="6"/>
+    <col width="10" customWidth="1" min="7" max="7"/>
+    <col width="101" customWidth="1" min="8" max="8"/>
+    <col width="10" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="11" customWidth="1" min="12" max="12"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -5766,6 +5990,20 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="10" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="15" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
+    <col width="15" customWidth="1" min="5" max="5"/>
+    <col width="57" customWidth="1" min="6" max="6"/>
+    <col width="10" customWidth="1" min="7" max="7"/>
+    <col width="96" customWidth="1" min="8" max="8"/>
+    <col width="10" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="9" customWidth="1" min="11" max="11"/>
+    <col width="16" customWidth="1" min="12" max="12"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
